--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,12 @@
   <si>
     <t>863777020460779</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>352107065815851</t>
+  </si>
+  <si>
+    <t>A0000049CBFD96</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,6 +453,9 @@
       <c r="B3">
         <v>15336290777</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1">
         <v>41895</v>
       </c>
@@ -458,28 +467,28 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>364998822</v>
+      </c>
       <c r="B4">
-        <v>13813126098</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>13659881364</v>
       </c>
       <c r="D4" s="1">
-        <v>41896</v>
+        <v>41895</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>41915</v>
+        <v>41914</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>13054284645</v>
+        <v>13813126098</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>41896</v>
@@ -493,10 +502,47 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
+        <v>13054284645</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41896</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7">
         <v>13813290346</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>13472895555</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41888</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41907</v>
       </c>
     </row>
   </sheetData>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>A0000049CBFD96</t>
+  </si>
+  <si>
+    <t>时间荏苒</t>
+  </si>
+  <si>
+    <t>863077024653549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>355637059498105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864587027966572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,11 +488,14 @@
       <c r="B4">
         <v>13659881364</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="1">
         <v>41895</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>41914</v>
@@ -543,6 +561,34 @@
       </c>
       <c r="F8" s="1">
         <v>41907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10017078</v>
+      </c>
+      <c r="B10">
+        <v>18681751075</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41897</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41913</v>
       </c>
     </row>
   </sheetData>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>864587027966572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>862845024543550</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,6 +595,26 @@
         <v>41913</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>810943520</v>
+      </c>
+      <c r="B11">
+        <v>13008816430</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41898</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41914</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>862845024543550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>862961021694393</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,10 +593,10 @@
         <v>41897</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
-        <v>41913</v>
+        <v>41915</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -613,6 +617,23 @@
       </c>
       <c r="F11" s="1">
         <v>41914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>18283152737</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41899</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41915</v>
       </c>
     </row>
   </sheetData>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,9 @@
   <si>
     <t>862961021694393</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>865002022304760</t>
   </si>
 </sst>
 </file>
@@ -434,16 +437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
@@ -636,6 +639,26 @@
         <v>41915</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>136533941</v>
+      </c>
+      <c r="B13">
+        <v>18565680912</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41887</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41902</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>865002022304760</t>
+  </si>
+  <si>
+    <t>359093053221604</t>
+  </si>
+  <si>
+    <t>357780050278791</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,6 +665,34 @@
         <v>41902</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>30074280</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2667498809</v>
+      </c>
+      <c r="B15">
+        <v>18694139403</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41902</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>41917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>357780050278791</t>
+  </si>
+  <si>
+    <t>355696051860324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,6 +697,23 @@
         <v>41917</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>15158106047</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41902</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>41917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>355696051860324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>357747050766661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>355637059528174</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,6 +722,40 @@
         <v>41917</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>88289987</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41902</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>13729170823</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41902</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>41917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,9 @@
   <si>
     <t>355637059528174</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>863990021329683</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,6 +759,23 @@
         <v>41917</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>18712993098</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41892</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>41907</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>863990021329683</t>
+  </si>
+  <si>
+    <t>868033015138961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353557061188670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,6 +784,46 @@
         <v>41907</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>286097263</v>
+      </c>
+      <c r="B20">
+        <v>18696536781</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41904</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>124520281</v>
+      </c>
+      <c r="B21">
+        <v>18914339356</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41904</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
+        <v>41919</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,9 @@
   <si>
     <t>353557061188670</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99000519661570</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,6 +827,23 @@
         <v>41919</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>18978913276</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41940</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1">
+        <v>41971</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>99000519661570</t>
+  </si>
+  <si>
+    <t>355848061003466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,6 +848,26 @@
         <v>41971</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>438190650</v>
+      </c>
+      <c r="B23">
+        <v>18215112188</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41925</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1">
+        <v>41941</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/pay/player.xlsx
+++ b/app/pay/player.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
